--- a/CompCars_Original/SwinBase/wronglyClassifications/Data_Full_gradCAM++_SwinBase_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
+++ b/CompCars_Original/SwinBase/wronglyClassifications/Data_Full_gradCAM++_SwinBase_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,445 +436,507 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>segments</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>PercActivationsOriginal</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrect</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsIncorrect</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrected</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsFixed</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>background</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.2193880051880051</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.217917741953228</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.285514361640408</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.3027460322543531</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.2197628033938139</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>back_bumper</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.006614603462307188</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.006611373440130428</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.006759876494209135</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.006643744228823271</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.006612077522386552</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>back_glass</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.01625003494706876</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.01613979685341022</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.02120808824219975</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.02122059604426887</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.01625030699856501</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>back_left_door</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.004667192975326749</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.004672928326033909</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.004409240633004406</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.004283180371317001</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.004664451096088071</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>back_left_light</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.005064704323092135</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.005073687766622049</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.004660666205986013</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.004506850081903948</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.005061358738753739</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>back_right_door</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.00646411216207421</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.006447242401919557</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.007222844167926142</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.006998859235689449</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.006459240368003213</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>back_right_light</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.006498681411027906</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.00651164595411849</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.005915589909198922</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.00577679349137577</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.006495662513467819</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>front_bumper</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.2650745285219032</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.2655695988270642</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.2428083147625405</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2378347097223002</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.2649663499078127</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>front_glass</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.1782616765367299</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.178790903133181</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.1544592541315261</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.1666901428498772</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.1785277050170661</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>front_left_door</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.002547380907533988</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.002553099686991655</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.002290173871443063</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.002109214907589208</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.002543444951671265</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>front_left_light</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.01999302931809749</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.02001757627267385</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.0188890088748572</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.01721624247924594</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.01995664573940348</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>front_right_door</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.002606718949227065</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.002606285961405223</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.002626192949779626</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.002494052115134413</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.002603844814220153</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>front_right_light</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.01984729240763609</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.01988950825405139</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.0179485983221369</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.01675342082115675</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.01982129664709572</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>hood</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.2353942451103653</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.2359922450931459</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.2084986803675823</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.1873053026736246</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.2349332776213345</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>left_mirror</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.00318297589637801</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.003191255307991952</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.002810602221617016</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.002901542280104123</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>0.003184953892099999</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>right_mirror</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>0.002831446539000315</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.002839623253149774</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.002463691771236831</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.002510270044798216</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>0.002832459641777847</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>tailgate</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>0.0002332210402633291</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0.000235514976997048</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>0.0001300492581326554</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.000122108308123255</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0.0002330483202826251</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>trunk</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>0.005072684510010193</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.004932340960345205</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0.01138475664201151</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.01188687539146978</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>0.005083605865844802</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>wheel</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>7.465972078052352e-06</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>7.631750146240576e-06</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>9.960549159186688e-09</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>6.521635797559447e-08</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>7.467173921940205e-06</v>
       </c>
     </row>
